--- a/Project_7/presentation/presentation_modeles.xlsx
+++ b/Project_7/presentation/presentation_modeles.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NEXTCLOUD-NAS-WINDOWS\Documents\SCOLAIRE_BOULOT\Formation_openclassroom_AI_Engineer\scripts\Project_7\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2124AB40-9505-46BA-BF2D-DC20D7DB31D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA99881B-A8E1-4F91-B330-7C100C99A425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traitement texte - Air Paradis" sheetId="1" r:id="rId1"/>
+    <sheet name="Modèles Simples (CV)" sheetId="2" r:id="rId2"/>
+    <sheet name="Modèles Avancés" sheetId="3" r:id="rId3"/>
+    <sheet name="Modèle BERT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="162">
   <si>
     <t>Approche</t>
   </si>
@@ -162,13 +165,572 @@
 ✔️ Lemmatisation
 ✔️ Stopwords (mais conservation négations)</t>
   </si>
+  <si>
+    <t>Paramètre</t>
+  </si>
+  <si>
+    <t>Valeurs testées</t>
+  </si>
+  <si>
+    <t>Signification</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Force de régularisation (inverse). Plus C est élevé, moins il y a de régularisation.</t>
+  </si>
+  <si>
+    <t>max_iter</t>
+  </si>
+  <si>
+    <t>[1000]</t>
+  </si>
+  <si>
+    <t>Nombre maximal d'itérations pour la convergence.</t>
+  </si>
+  <si>
+    <t>solver</t>
+  </si>
+  <si>
+    <t>['liblinear', 'saga']</t>
+  </si>
+  <si>
+    <t>Algorithme de résolution pour l'optimisation.</t>
+  </si>
+  <si>
+    <t>SVM Linéaire</t>
+  </si>
+  <si>
+    <t>Force de régularisation (inverse).</t>
+  </si>
+  <si>
+    <t>Nombre maximal d'itérations.</t>
+  </si>
+  <si>
+    <t>dual</t>
+  </si>
+  <si>
+    <t>Formulation duale de l’optimisation (utile si n_samples &gt; n_features).</t>
+  </si>
+  <si>
+    <t>n_estimators</t>
+  </si>
+  <si>
+    <t>Nombre d’arbres dans la forêt.</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>Profondeur maximale de chaque arbre.</t>
+  </si>
+  <si>
+    <t>min_samples_split</t>
+  </si>
+  <si>
+    <t>Nombre minimal d’échantillons pour diviser un noeud.</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Paramètre de lissage de Laplace (évite les probabilités nulles).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.01, 0.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 10.0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, False]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[50, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 200]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 10, 20]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 5]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.1, 0.5, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2.0]</t>
+    </r>
+  </si>
+  <si>
+    <t>Modèle de classification</t>
+  </si>
+  <si>
+    <t>Valeur(s)</t>
+  </si>
+  <si>
+    <t>Embedding</t>
+  </si>
+  <si>
+    <t>weights</t>
+  </si>
+  <si>
+    <t>Word2Vec (Google News) / GloVe (glove.6B.300d)</t>
+  </si>
+  <si>
+    <t>trainable</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>output_dim</t>
+  </si>
+  <si>
+    <t>SpatialDropout1D</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>LSTM couche 1</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>bidirectional</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>return_sequences</t>
+  </si>
+  <si>
+    <t>dropout</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>recurrent_dropout</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>LSTM couche 2</t>
+  </si>
+  <si>
+    <t>Dense intermédiaire</t>
+  </si>
+  <si>
+    <t>activation</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>Dense sortie</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>Compilation</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>binary_crossentropy</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <t>precision, recall</t>
+  </si>
+  <si>
+    <t>EarlyStopping</t>
+  </si>
+  <si>
+    <t>monitor=val_loss, patience=5, restore_best_weights=True</t>
+  </si>
+  <si>
+    <t>ReduceLROnPlateau</t>
+  </si>
+  <si>
+    <t>monitor=val_loss, factor=0.2, patience=2</t>
+  </si>
+  <si>
+    <t>ModelCheckpoint</t>
+  </si>
+  <si>
+    <t>monitor=val_precision, save_best_only=True</t>
+  </si>
+  <si>
+    <t>Composant</t>
+  </si>
+  <si>
+    <t>Rôle / Explication (synthétique)</t>
+  </si>
+  <si>
+    <t>Vecteurs pré-entraînés riches en contexte.</t>
+  </si>
+  <si>
+    <t>Dimension de chaque vecteur de mot.</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>Capture les motifs locaux dans les tweets.</t>
+  </si>
+  <si>
+    <t>Combine et enrichit les représentations extraites par LSTM.</t>
+  </si>
+  <si>
+    <t>Sortie unique pour prédire 0 ou 1.</t>
+  </si>
+  <si>
+    <t>Optimiseur efficace et adaptatif.</t>
+  </si>
+  <si>
+    <t>Les vecteurs ne sont pas ajustés pendant l’entraînement.</t>
+  </si>
+  <si>
+    <t>Présent (non précisé)</t>
+  </si>
+  <si>
+    <t>Régularise la séquence en mettant à zéro des vecteurs entiers.</t>
+  </si>
+  <si>
+    <t>Apprend dans les deux sens pour capter plus de contexte.</t>
+  </si>
+  <si>
+    <t>Renvoie la séquence complète pour la couche suivante.</t>
+  </si>
+  <si>
+    <t>Régularisation appliquée aux entrées.</t>
+  </si>
+  <si>
+    <t>Pas de dropout sur les connexions récurrentes.</t>
+  </si>
+  <si>
+    <t>Résume la séquence en un vecteur global.</t>
+  </si>
+  <si>
+    <t>Continue à capter le contexte passé/futur.</t>
+  </si>
+  <si>
+    <t>False (défaut)</t>
+  </si>
+  <si>
+    <t>Produit un vecteur unique pour la classification.</t>
+  </si>
+  <si>
+    <t>Régularisation identique à la couche précédente.</t>
+  </si>
+  <si>
+    <t>Pas de dropout récurrent.</t>
+  </si>
+  <si>
+    <t>Supprime aléatoirement des connexions pour éviter l’overfitting.</t>
+  </si>
+  <si>
+    <t>Produit une probabilité ∈ [0, 1] de sentiment positif.</t>
+  </si>
+  <si>
+    <t>Perte adaptée à la classification binaire.</t>
+  </si>
+  <si>
+    <t>Suit la performance métier (limiter les faux positifs notamment).</t>
+  </si>
+  <si>
+    <t>Stoppe l’entraînement si stagnation de la perte validation.</t>
+  </si>
+  <si>
+    <t>Réduit le taux d’apprentissage si stagnation de la performance.</t>
+  </si>
+  <si>
+    <t>Sauvegarde uniquement le meilleur modèle selon la précision.</t>
+  </si>
+  <si>
+    <t>Entraînement, callback</t>
+  </si>
+  <si>
+    <t>Chargement du modèle</t>
+  </si>
+  <si>
+    <t>Modèle de base</t>
+  </si>
+  <si>
+    <t>distilbert-base-uncased</t>
+  </si>
+  <si>
+    <t>Modèle pré-entraîné utilisé pour le fine-tuning</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Batch size (réel)</t>
+  </si>
+  <si>
+    <t>Taille réelle de batch utilisée pour chaque mise à jour (réduite pour mémoire GPU)</t>
+  </si>
+  <si>
+    <t>Batch size effectif</t>
+  </si>
+  <si>
+    <t>Taille simulée via accumulation de gradients (8 x 2)</t>
+  </si>
+  <si>
+    <t>Optimisation</t>
+  </si>
+  <si>
+    <t>Learning Rate (lr)</t>
+  </si>
+  <si>
+    <t>Taux d’apprentissage initial</t>
+  </si>
+  <si>
+    <t>Accumulation de gradients</t>
+  </si>
+  <si>
+    <t>Nombre d'étapes avant mise à jour des poids</t>
+  </si>
+  <si>
+    <t>Prétraitement</t>
+  </si>
+  <si>
+    <t>max_length</t>
+  </si>
+  <si>
+    <t>Longueur maximale en tokens pour le padding/truncation</t>
+  </si>
+  <si>
+    <t>Early Stopping</t>
+  </si>
+  <si>
+    <t>patience</t>
+  </si>
+  <si>
+    <t>Arrête l'entraînement si val_loss ne diminue plus pendant 7 époques</t>
+  </si>
+  <si>
+    <t>Scheduler</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Réduit le learning rate si la val_loss stagne</t>
+  </si>
+  <si>
+    <t>patience (scheduler)</t>
+  </si>
+  <si>
+    <t>Nombre d’époques sans amélioration avant réduction du lr</t>
+  </si>
+  <si>
+    <t>facteur</t>
+  </si>
+  <si>
+    <t>Multiplicateur de réduction du taux d’apprentissage</t>
+  </si>
+  <si>
+    <t>min_lr</t>
+  </si>
+  <si>
+    <t>Taux d’apprentissage minimal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -190,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -250,11 +812,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,6 +918,86 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,16 +1303,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -600,14 +1321,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -620,14 +1341,14 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -638,11 +1359,11 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="7"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -652,11 +1373,11 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7"/>
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
@@ -666,11 +1387,11 @@
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7"/>
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
@@ -682,13 +1403,13 @@
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8"/>
       <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
@@ -700,14 +1421,14 @@
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>29</v>
@@ -718,11 +1439,795 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0571C031-BA9E-450B-B448-95F8C309AB87}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144DE55D-A729-40DB-9E77-F89AAA1F01E5}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="21" customWidth="1"/>
+    <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="28">
+        <v>300</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="28">
+        <v>128</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="28">
+        <v>64</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="28">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A5:A25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9752FF4-C07D-4835-A35D-C50D82405322}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="36">
+        <v>8</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="36">
+        <v>16</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="38">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="B6" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="36">
+        <v>2</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="36">
+        <v>128</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="36">
+        <v>7</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="36">
+        <v>2</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
+      <c r="B11" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="40">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>